--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Il11</t>
+  </si>
+  <si>
+    <t>Il11ra1</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il11</t>
-  </si>
-  <si>
-    <t>Il11ra1</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H2">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I2">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J2">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.960874666666667</v>
+        <v>3.740423666666667</v>
       </c>
       <c r="N2">
-        <v>5.882624</v>
+        <v>11.221271</v>
       </c>
       <c r="O2">
-        <v>0.04651802468442268</v>
+        <v>0.09080632923846411</v>
       </c>
       <c r="P2">
-        <v>0.04651802468442268</v>
+        <v>0.09080632923846411</v>
       </c>
       <c r="Q2">
-        <v>0.4832797848462221</v>
+        <v>1.779444219022222</v>
       </c>
       <c r="R2">
-        <v>4.349518063615999</v>
+        <v>16.0149979712</v>
       </c>
       <c r="S2">
-        <v>0.002363119087820565</v>
+        <v>0.008592552805516894</v>
       </c>
       <c r="T2">
-        <v>0.002363119087820565</v>
+        <v>0.008592552805516894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H3">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I3">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J3">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>80.512991</v>
       </c>
       <c r="O3">
-        <v>0.6366725635965687</v>
+        <v>0.6515384191968537</v>
       </c>
       <c r="P3">
-        <v>0.6366725635965687</v>
+        <v>0.6515384191968537</v>
       </c>
       <c r="Q3">
-        <v>6.614446370838222</v>
+        <v>12.76757119502222</v>
       </c>
       <c r="R3">
-        <v>59.530017337544</v>
+        <v>114.9081407552</v>
       </c>
       <c r="S3">
-        <v>0.03234301322838674</v>
+        <v>0.06165185090865433</v>
       </c>
       <c r="T3">
-        <v>0.03234301322838674</v>
+        <v>0.06165185090865433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H4">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I4">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J4">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.28669</v>
+        <v>1.684239</v>
       </c>
       <c r="N4">
-        <v>9.86007</v>
+        <v>5.052716999999999</v>
       </c>
       <c r="O4">
-        <v>0.07797047366109675</v>
+        <v>0.04088829896816364</v>
       </c>
       <c r="P4">
-        <v>0.07797047366109675</v>
+        <v>0.04088829896816365</v>
       </c>
       <c r="Q4">
-        <v>0.8100419996533332</v>
+        <v>0.8012486336</v>
       </c>
       <c r="R4">
-        <v>7.290377996879999</v>
+        <v>7.211237702399999</v>
       </c>
       <c r="S4">
-        <v>0.003960905817581902</v>
+        <v>0.003869057046553184</v>
       </c>
       <c r="T4">
-        <v>0.003960905817581902</v>
+        <v>0.003869057046553185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H5">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I5">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J5">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.722250333333333</v>
+        <v>1.134945666666667</v>
       </c>
       <c r="N5">
-        <v>5.166751000000001</v>
+        <v>3.404837</v>
       </c>
       <c r="O5">
-        <v>0.04085711589866454</v>
+        <v>0.02755309533343455</v>
       </c>
       <c r="P5">
-        <v>0.04085711589866454</v>
+        <v>0.02755309533343455</v>
       </c>
       <c r="Q5">
-        <v>0.4244681134871111</v>
+        <v>0.5399314851555556</v>
       </c>
       <c r="R5">
-        <v>3.820213021384</v>
+        <v>4.859383366399999</v>
       </c>
       <c r="S5">
-        <v>0.002075544503628992</v>
+        <v>0.002607212829694402</v>
       </c>
       <c r="T5">
-        <v>0.002075544503628992</v>
+        <v>0.002607212829694402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H6">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I6">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J6">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.06676</v>
+        <v>3.066425666666667</v>
       </c>
       <c r="N6">
-        <v>9.200279999999999</v>
+        <v>9.199277</v>
       </c>
       <c r="O6">
-        <v>0.07275305240375728</v>
+        <v>0.07444366828123397</v>
       </c>
       <c r="P6">
-        <v>0.07275305240375728</v>
+        <v>0.07444366828123397</v>
       </c>
       <c r="Q6">
-        <v>0.7558377586133332</v>
+        <v>1.458800903822222</v>
       </c>
       <c r="R6">
-        <v>6.802539827519999</v>
+        <v>13.1292081344</v>
       </c>
       <c r="S6">
-        <v>0.003695860432571211</v>
+        <v>0.007044235309447304</v>
       </c>
       <c r="T6">
-        <v>0.003695860432571211</v>
+        <v>0.007044235309447304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H7">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I7">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J7">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.278769333333333</v>
+        <v>4.727524333333332</v>
       </c>
       <c r="N7">
-        <v>15.836308</v>
+        <v>14.182573</v>
       </c>
       <c r="O7">
-        <v>0.1252287697554901</v>
+        <v>0.1147701889818499</v>
       </c>
       <c r="P7">
-        <v>0.1252287697554901</v>
+        <v>0.1147701889818499</v>
       </c>
       <c r="Q7">
-        <v>1.301012528252444</v>
+        <v>2.249040909511111</v>
       </c>
       <c r="R7">
-        <v>11.709112754272</v>
+        <v>20.2413681856</v>
       </c>
       <c r="S7">
-        <v>0.006361630747674083</v>
+        <v>0.01086013406329801</v>
       </c>
       <c r="T7">
-        <v>0.006361630747674083</v>
+        <v>0.01086013406329801</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>11.192539</v>
       </c>
       <c r="I8">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J8">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.960874666666667</v>
+        <v>3.740423666666667</v>
       </c>
       <c r="N8">
-        <v>5.882624</v>
+        <v>11.221271</v>
       </c>
       <c r="O8">
-        <v>0.04651802468442268</v>
+        <v>0.09080632923846411</v>
       </c>
       <c r="P8">
-        <v>0.04651802468442268</v>
+        <v>0.09080632923846411</v>
       </c>
       <c r="Q8">
-        <v>7.315722060259556</v>
+        <v>13.95494592189656</v>
       </c>
       <c r="R8">
-        <v>65.841498542336</v>
+        <v>125.594513297069</v>
       </c>
       <c r="S8">
-        <v>0.03577207858443799</v>
+        <v>0.06738542768028816</v>
       </c>
       <c r="T8">
-        <v>0.03577207858443799</v>
+        <v>0.06738542768028816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>11.192539</v>
       </c>
       <c r="I9">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J9">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>80.512991</v>
       </c>
       <c r="O9">
-        <v>0.6366725635965687</v>
+        <v>0.6515384191968537</v>
       </c>
       <c r="P9">
-        <v>0.6366725635965687</v>
+        <v>0.6515384191968537</v>
       </c>
       <c r="Q9">
         <v>100.1271990860166</v>
@@ -1013,10 +1013,10 @@
         <v>901.144791774149</v>
       </c>
       <c r="S9">
-        <v>0.4895973363451665</v>
+        <v>0.4834926749700805</v>
       </c>
       <c r="T9">
-        <v>0.4895973363451665</v>
+        <v>0.4834926749700805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>11.192539</v>
       </c>
       <c r="I10">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J10">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.28669</v>
+        <v>1.684239</v>
       </c>
       <c r="N10">
-        <v>9.86007</v>
+        <v>5.052716999999999</v>
       </c>
       <c r="O10">
-        <v>0.07797047366109675</v>
+        <v>0.04088829896816364</v>
       </c>
       <c r="P10">
-        <v>0.07797047366109675</v>
+        <v>0.04088829896816365</v>
       </c>
       <c r="Q10">
-        <v>12.26213533530333</v>
+        <v>6.283636897607</v>
       </c>
       <c r="R10">
-        <v>110.35921801773</v>
+        <v>56.55273207846299</v>
       </c>
       <c r="S10">
-        <v>0.05995882090850266</v>
+        <v>0.03034232895653821</v>
       </c>
       <c r="T10">
-        <v>0.05995882090850266</v>
+        <v>0.03034232895653821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>11.192539</v>
       </c>
       <c r="I11">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J11">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.722250333333333</v>
+        <v>1.134945666666667</v>
       </c>
       <c r="N11">
-        <v>5.166751000000001</v>
+        <v>3.404837</v>
       </c>
       <c r="O11">
-        <v>0.04085711589866454</v>
+        <v>0.02755309533343455</v>
       </c>
       <c r="P11">
-        <v>0.04085711589866454</v>
+        <v>0.02755309533343455</v>
       </c>
       <c r="Q11">
-        <v>6.425451341198778</v>
+        <v>4.234307879015889</v>
       </c>
       <c r="R11">
-        <v>57.82906207078901</v>
+        <v>38.108770911143</v>
       </c>
       <c r="S11">
-        <v>0.03141887409397976</v>
+        <v>0.02044656059252729</v>
       </c>
       <c r="T11">
-        <v>0.03141887409397976</v>
+        <v>0.02044656059252729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>11.192539</v>
       </c>
       <c r="I12">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J12">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.06676</v>
+        <v>3.066425666666667</v>
       </c>
       <c r="N12">
-        <v>9.200279999999999</v>
+        <v>9.199277</v>
       </c>
       <c r="O12">
-        <v>0.07275305240375728</v>
+        <v>0.07444366828123397</v>
       </c>
       <c r="P12">
-        <v>0.07275305240375728</v>
+        <v>0.07444366828123397</v>
       </c>
       <c r="Q12">
-        <v>11.44161030121333</v>
+        <v>11.44036295492256</v>
       </c>
       <c r="R12">
-        <v>102.97449271092</v>
+        <v>102.963266594303</v>
       </c>
       <c r="S12">
-        <v>0.05594665563510997</v>
+        <v>0.05524304822461183</v>
       </c>
       <c r="T12">
-        <v>0.05594665563510997</v>
+        <v>0.05524304822461183</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>11.192539</v>
       </c>
       <c r="I13">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J13">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.278769333333333</v>
+        <v>4.727524333333332</v>
       </c>
       <c r="N13">
-        <v>15.836308</v>
+        <v>14.182573</v>
       </c>
       <c r="O13">
-        <v>0.1252287697554901</v>
+        <v>0.1147701889818499</v>
       </c>
       <c r="P13">
-        <v>0.1252287697554901</v>
+        <v>0.1147701889818499</v>
       </c>
       <c r="Q13">
-        <v>19.69427721177911</v>
+        <v>17.63766682476077</v>
       </c>
       <c r="R13">
-        <v>177.248494906012</v>
+        <v>158.739001422847</v>
       </c>
       <c r="S13">
-        <v>0.09630016371322797</v>
+        <v>0.08516849358792843</v>
       </c>
       <c r="T13">
-        <v>0.09630016371322797</v>
+        <v>0.08516849358792844</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1293,10 +1293,10 @@
         <v>0.17351</v>
       </c>
       <c r="I14">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J14">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.960874666666667</v>
+        <v>3.740423666666667</v>
       </c>
       <c r="N14">
-        <v>5.882624</v>
+        <v>11.221271</v>
       </c>
       <c r="O14">
-        <v>0.04651802468442268</v>
+        <v>0.09080632923846411</v>
       </c>
       <c r="P14">
-        <v>0.04651802468442268</v>
+        <v>0.09080632923846411</v>
       </c>
       <c r="Q14">
-        <v>0.1134104544711111</v>
+        <v>0.2163336368011111</v>
       </c>
       <c r="R14">
-        <v>1.02069409024</v>
+        <v>1.94700273121</v>
       </c>
       <c r="S14">
-        <v>0.0005545491827355558</v>
+        <v>0.001044628529487974</v>
       </c>
       <c r="T14">
-        <v>0.0005545491827355558</v>
+        <v>0.001044628529487974</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1355,10 +1355,10 @@
         <v>0.17351</v>
       </c>
       <c r="I15">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J15">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>80.512991</v>
       </c>
       <c r="O15">
-        <v>0.6366725635965687</v>
+        <v>0.6515384191968537</v>
       </c>
       <c r="P15">
-        <v>0.6366725635965687</v>
+        <v>0.6515384191968537</v>
       </c>
       <c r="Q15">
         <v>1.552201007601111</v>
@@ -1385,10 +1385,10 @@
         <v>13.96980906841</v>
       </c>
       <c r="S15">
-        <v>0.00758988052927489</v>
+        <v>0.007495244290331147</v>
       </c>
       <c r="T15">
-        <v>0.007589880529274889</v>
+        <v>0.007495244290331147</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1417,10 +1417,10 @@
         <v>0.17351</v>
       </c>
       <c r="I16">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J16">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.28669</v>
+        <v>1.684239</v>
       </c>
       <c r="N16">
-        <v>9.86007</v>
+        <v>5.052716999999999</v>
       </c>
       <c r="O16">
-        <v>0.07797047366109675</v>
+        <v>0.04088829896816364</v>
       </c>
       <c r="P16">
-        <v>0.07797047366109675</v>
+        <v>0.04088829896816365</v>
       </c>
       <c r="Q16">
-        <v>0.1900911939666667</v>
+        <v>0.09741076962999999</v>
       </c>
       <c r="R16">
-        <v>1.7108207457</v>
+        <v>0.8766969266699999</v>
       </c>
       <c r="S16">
-        <v>0.0009294991079177206</v>
+        <v>0.0004703756223006187</v>
       </c>
       <c r="T16">
-        <v>0.0009294991079177205</v>
+        <v>0.0004703756223006188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1479,10 +1479,10 @@
         <v>0.17351</v>
       </c>
       <c r="I17">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J17">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.722250333333333</v>
+        <v>1.134945666666667</v>
       </c>
       <c r="N17">
-        <v>5.166751000000001</v>
+        <v>3.404837</v>
       </c>
       <c r="O17">
-        <v>0.04085711589866454</v>
+        <v>0.02755309533343455</v>
       </c>
       <c r="P17">
-        <v>0.04085711589866454</v>
+        <v>0.02755309533343455</v>
       </c>
       <c r="Q17">
-        <v>0.09960921844555556</v>
+        <v>0.06564147420777777</v>
       </c>
       <c r="R17">
-        <v>0.8964829660100001</v>
+        <v>0.59077326787</v>
       </c>
       <c r="S17">
-        <v>0.0004870645386222401</v>
+        <v>0.0003169685384531079</v>
       </c>
       <c r="T17">
-        <v>0.00048706453862224</v>
+        <v>0.0003169685384531079</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1541,10 +1541,10 @@
         <v>0.17351</v>
       </c>
       <c r="I18">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J18">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.06676</v>
+        <v>3.066425666666667</v>
       </c>
       <c r="N18">
-        <v>9.200279999999999</v>
+        <v>9.199277</v>
       </c>
       <c r="O18">
-        <v>0.07275305240375728</v>
+        <v>0.07444366828123397</v>
       </c>
       <c r="P18">
-        <v>0.07275305240375728</v>
+        <v>0.07444366828123397</v>
       </c>
       <c r="Q18">
-        <v>0.1773711758666667</v>
+        <v>0.1773518391411111</v>
       </c>
       <c r="R18">
-        <v>1.5963405828</v>
+        <v>1.59616655227</v>
       </c>
       <c r="S18">
-        <v>0.000867301353093157</v>
+        <v>0.0008563938260525517</v>
       </c>
       <c r="T18">
-        <v>0.0008673013530931569</v>
+        <v>0.0008563938260525517</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1603,10 +1603,10 @@
         <v>0.17351</v>
       </c>
       <c r="I19">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J19">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.278769333333333</v>
+        <v>4.727524333333332</v>
       </c>
       <c r="N19">
-        <v>15.836308</v>
+        <v>14.182573</v>
       </c>
       <c r="O19">
-        <v>0.1252287697554901</v>
+        <v>0.1147701889818499</v>
       </c>
       <c r="P19">
-        <v>0.1252287697554901</v>
+        <v>0.1147701889818499</v>
       </c>
       <c r="Q19">
-        <v>0.3053064223422222</v>
+        <v>0.2734242490255555</v>
       </c>
       <c r="R19">
-        <v>2.74775780108</v>
+        <v>2.46081824123</v>
       </c>
       <c r="S19">
-        <v>0.001492873190424638</v>
+        <v>0.00132030679745154</v>
       </c>
       <c r="T19">
-        <v>0.001492873190424637</v>
+        <v>0.00132030679745154</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H20">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I20">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J20">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.960874666666667</v>
+        <v>3.740423666666667</v>
       </c>
       <c r="N20">
-        <v>5.882624</v>
+        <v>11.221271</v>
       </c>
       <c r="O20">
-        <v>0.04651802468442268</v>
+        <v>0.09080632923846411</v>
       </c>
       <c r="P20">
-        <v>0.04651802468442268</v>
+        <v>0.09080632923846411</v>
       </c>
       <c r="Q20">
-        <v>1.419268664860445</v>
+        <v>2.854490606329889</v>
       </c>
       <c r="R20">
-        <v>12.773417983744</v>
+        <v>25.690415456969</v>
       </c>
       <c r="S20">
-        <v>0.0069398741222841</v>
+        <v>0.0137837202231711</v>
       </c>
       <c r="T20">
-        <v>0.0069398741222841</v>
+        <v>0.0137837202231711</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H21">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I21">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J21">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>80.512991</v>
       </c>
       <c r="O21">
-        <v>0.6366725635965687</v>
+        <v>0.6515384191968537</v>
       </c>
       <c r="P21">
-        <v>0.6366725635965687</v>
+        <v>0.6515384191968537</v>
       </c>
       <c r="Q21">
-        <v>19.42493099006345</v>
+        <v>20.48106462244989</v>
       </c>
       <c r="R21">
-        <v>174.824378910571</v>
+        <v>184.329581602049</v>
       </c>
       <c r="S21">
-        <v>0.09498312704476654</v>
+        <v>0.09889864902778772</v>
       </c>
       <c r="T21">
-        <v>0.09498312704476654</v>
+        <v>0.09889864902778772</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H22">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I22">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J22">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.28669</v>
+        <v>1.684239</v>
       </c>
       <c r="N22">
-        <v>9.86007</v>
+        <v>5.052716999999999</v>
       </c>
       <c r="O22">
-        <v>0.07797047366109675</v>
+        <v>0.04088829896816364</v>
       </c>
       <c r="P22">
-        <v>0.07797047366109675</v>
+        <v>0.04088829896816365</v>
       </c>
       <c r="Q22">
-        <v>2.378885406296667</v>
+        <v>1.285320817307</v>
       </c>
       <c r="R22">
-        <v>21.40996865667</v>
+        <v>11.567887355763</v>
       </c>
       <c r="S22">
-        <v>0.01163216357817698</v>
+        <v>0.006206537342771633</v>
       </c>
       <c r="T22">
-        <v>0.01163216357817698</v>
+        <v>0.006206537342771634</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H23">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I23">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J23">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.722250333333333</v>
+        <v>1.134945666666667</v>
       </c>
       <c r="N23">
-        <v>5.166751000000001</v>
+        <v>3.404837</v>
       </c>
       <c r="O23">
-        <v>0.04085711589866454</v>
+        <v>0.02755309533343455</v>
       </c>
       <c r="P23">
-        <v>0.04085711589866454</v>
+        <v>0.02755309533343455</v>
       </c>
       <c r="Q23">
-        <v>1.246553883681222</v>
+        <v>0.8661296240492221</v>
       </c>
       <c r="R23">
-        <v>11.218984953131</v>
+        <v>7.795166616442999</v>
       </c>
       <c r="S23">
-        <v>0.006095341392070189</v>
+        <v>0.004182353372759753</v>
       </c>
       <c r="T23">
-        <v>0.006095341392070189</v>
+        <v>0.004182353372759753</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H24">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I24">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J24">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.06676</v>
+        <v>3.066425666666667</v>
       </c>
       <c r="N24">
-        <v>9.200279999999999</v>
+        <v>9.199277</v>
       </c>
       <c r="O24">
-        <v>0.07275305240375728</v>
+        <v>0.07444366828123397</v>
       </c>
       <c r="P24">
-        <v>0.07275305240375728</v>
+        <v>0.07444366828123397</v>
       </c>
       <c r="Q24">
-        <v>2.219701465186667</v>
+        <v>2.340131503955889</v>
       </c>
       <c r="R24">
-        <v>19.97731318668</v>
+        <v>21.061183535603</v>
       </c>
       <c r="S24">
-        <v>0.01085379332246425</v>
+        <v>0.01129999092112228</v>
       </c>
       <c r="T24">
-        <v>0.01085379332246425</v>
+        <v>0.01129999092112228</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H25">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I25">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J25">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.278769333333333</v>
+        <v>4.727524333333332</v>
       </c>
       <c r="N25">
-        <v>15.836308</v>
+        <v>14.182573</v>
       </c>
       <c r="O25">
-        <v>0.1252287697554901</v>
+        <v>0.1147701889818499</v>
       </c>
       <c r="P25">
-        <v>0.1252287697554901</v>
+        <v>0.1147701889818499</v>
       </c>
       <c r="Q25">
-        <v>3.820739811260889</v>
+        <v>3.607792860727443</v>
       </c>
       <c r="R25">
-        <v>34.386658301348</v>
+        <v>32.47013574654699</v>
       </c>
       <c r="S25">
-        <v>0.01868247640537975</v>
+        <v>0.0174212545331719</v>
       </c>
       <c r="T25">
-        <v>0.01868247640537975</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.092656</v>
-      </c>
-      <c r="H26">
-        <v>0.277968</v>
-      </c>
-      <c r="I26">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J26">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.960874666666667</v>
-      </c>
-      <c r="N26">
-        <v>5.882624</v>
-      </c>
-      <c r="O26">
-        <v>0.04651802468442268</v>
-      </c>
-      <c r="P26">
-        <v>0.04651802468442268</v>
-      </c>
-      <c r="Q26">
-        <v>0.1816868031146667</v>
-      </c>
-      <c r="R26">
-        <v>1.635181228032</v>
-      </c>
-      <c r="S26">
-        <v>0.0008884037071444701</v>
-      </c>
-      <c r="T26">
-        <v>0.0008884037071444699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.092656</v>
-      </c>
-      <c r="H27">
-        <v>0.277968</v>
-      </c>
-      <c r="I27">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J27">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>26.83766366666667</v>
-      </c>
-      <c r="N27">
-        <v>80.512991</v>
-      </c>
-      <c r="O27">
-        <v>0.6366725635965687</v>
-      </c>
-      <c r="P27">
-        <v>0.6366725635965687</v>
-      </c>
-      <c r="Q27">
-        <v>2.486670564698667</v>
-      </c>
-      <c r="R27">
-        <v>22.380035082288</v>
-      </c>
-      <c r="S27">
-        <v>0.01215920644897402</v>
-      </c>
-      <c r="T27">
-        <v>0.01215920644897402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.092656</v>
-      </c>
-      <c r="H28">
-        <v>0.277968</v>
-      </c>
-      <c r="I28">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J28">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>3.28669</v>
-      </c>
-      <c r="N28">
-        <v>9.86007</v>
-      </c>
-      <c r="O28">
-        <v>0.07797047366109675</v>
-      </c>
-      <c r="P28">
-        <v>0.07797047366109675</v>
-      </c>
-      <c r="Q28">
-        <v>0.30453154864</v>
-      </c>
-      <c r="R28">
-        <v>2.74078393776</v>
-      </c>
-      <c r="S28">
-        <v>0.001489084248917486</v>
-      </c>
-      <c r="T28">
-        <v>0.001489084248917486</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.092656</v>
-      </c>
-      <c r="H29">
-        <v>0.277968</v>
-      </c>
-      <c r="I29">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J29">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.722250333333333</v>
-      </c>
-      <c r="N29">
-        <v>5.166751000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.04085711589866454</v>
-      </c>
-      <c r="P29">
-        <v>0.04085711589866454</v>
-      </c>
-      <c r="Q29">
-        <v>0.1595768268853333</v>
-      </c>
-      <c r="R29">
-        <v>1.436191441968</v>
-      </c>
-      <c r="S29">
-        <v>0.0007802913703633614</v>
-      </c>
-      <c r="T29">
-        <v>0.0007802913703633613</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.092656</v>
-      </c>
-      <c r="H30">
-        <v>0.277968</v>
-      </c>
-      <c r="I30">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J30">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>3.06676</v>
-      </c>
-      <c r="N30">
-        <v>9.200279999999999</v>
-      </c>
-      <c r="O30">
-        <v>0.07275305240375728</v>
-      </c>
-      <c r="P30">
-        <v>0.07275305240375728</v>
-      </c>
-      <c r="Q30">
-        <v>0.28415371456</v>
-      </c>
-      <c r="R30">
-        <v>2.55738343104</v>
-      </c>
-      <c r="S30">
-        <v>0.001389441660518695</v>
-      </c>
-      <c r="T30">
-        <v>0.001389441660518694</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.092656</v>
-      </c>
-      <c r="H31">
-        <v>0.277968</v>
-      </c>
-      <c r="I31">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J31">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>5.278769333333333</v>
-      </c>
-      <c r="N31">
-        <v>15.836308</v>
-      </c>
-      <c r="O31">
-        <v>0.1252287697554901</v>
-      </c>
-      <c r="P31">
-        <v>0.1252287697554901</v>
-      </c>
-      <c r="Q31">
-        <v>0.4891096513493333</v>
-      </c>
-      <c r="R31">
-        <v>4.401986862144</v>
-      </c>
-      <c r="S31">
-        <v>0.002391625698783677</v>
-      </c>
-      <c r="T31">
-        <v>0.002391625698783676</v>
+        <v>0.0174212545331719</v>
       </c>
     </row>
   </sheetData>
